--- a/Day18/AoC-Day18.xlsx
+++ b/Day18/AoC-Day18.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/dariel_datoon_ey_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datooda\OneDrive - EY\Documents\UiPath\AdventOfCode2019UiPath\Day18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DABC7B7-3E0C-45E2-A424-9B7AC443A0D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{0DABC7B7-3E0C-45E2-A424-9B7AC443A0D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{977426E9-A649-4DAC-B7D4-F74731E09BBF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A1631D1-9F55-4DB0-952A-098155B3BDB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Map" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6501" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6561" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -197,27 +197,6 @@
   <si>
     <t>v</t>
   </si>
-  <si>
-    <t>25G</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>23G</t>
-  </si>
-  <si>
-    <t>16q</t>
-  </si>
 </sst>
 </file>
 
@@ -258,11 +237,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -270,13 +249,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -588,11 +560,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A093DF65-3729-4252-AE06-F46EB6B28133}">
-  <dimension ref="A1:CK81"/>
+  <dimension ref="A1:CC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AN40" sqref="AN40"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -610,7 +580,7 @@
     <col min="57" max="81" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1834,14 +1804,8 @@
       <c r="CC5" t="s">
         <v>0</v>
       </c>
-      <c r="CE5" t="s">
-        <v>33</v>
-      </c>
-      <c r="CF5">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2085,11 +2049,8 @@
       <c r="CC6" t="s">
         <v>0</v>
       </c>
-      <c r="CF6" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2579,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2824,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3313,14 +3274,8 @@
       <c r="CC11" t="s">
         <v>0</v>
       </c>
-      <c r="CI11" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3564,14 +3519,8 @@
       <c r="CC12" t="s">
         <v>0</v>
       </c>
-      <c r="CJ12" t="s">
-        <v>57</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3815,14 +3764,8 @@
       <c r="CC13" t="s">
         <v>0</v>
       </c>
-      <c r="CJ13" t="s">
-        <v>58</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4066,11 +4009,8 @@
       <c r="CC14" t="s">
         <v>0</v>
       </c>
-      <c r="CJ14" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4315,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -6883,8 +6823,8 @@
       <c r="AM26" t="s">
         <v>0</v>
       </c>
-      <c r="AN26">
-        <v>24</v>
+      <c r="AN26" t="s">
+        <v>1</v>
       </c>
       <c r="AO26" t="s">
         <v>0</v>
@@ -7128,8 +7068,8 @@
       <c r="AM27" t="s">
         <v>0</v>
       </c>
-      <c r="AN27">
-        <v>23</v>
+      <c r="AN27" t="s">
+        <v>1</v>
       </c>
       <c r="AO27" t="s">
         <v>0</v>
@@ -7373,8 +7313,8 @@
       <c r="AM28" t="s">
         <v>0</v>
       </c>
-      <c r="AN28">
-        <v>22</v>
+      <c r="AN28" t="s">
+        <v>1</v>
       </c>
       <c r="AO28" t="s">
         <v>0</v>
@@ -7618,8 +7558,8 @@
       <c r="AM29" t="s">
         <v>0</v>
       </c>
-      <c r="AN29">
-        <v>21</v>
+      <c r="AN29" t="s">
+        <v>1</v>
       </c>
       <c r="AO29" t="s">
         <v>0</v>
@@ -7863,8 +7803,8 @@
       <c r="AM30" t="s">
         <v>0</v>
       </c>
-      <c r="AN30">
-        <v>20</v>
+      <c r="AN30" t="s">
+        <v>1</v>
       </c>
       <c r="AO30" t="s">
         <v>0</v>
@@ -8108,8 +8048,8 @@
       <c r="AM31" t="s">
         <v>0</v>
       </c>
-      <c r="AN31">
-        <v>19</v>
+      <c r="AN31" t="s">
+        <v>1</v>
       </c>
       <c r="AO31" t="s">
         <v>0</v>
@@ -8350,8 +8290,8 @@
       <c r="AL32" t="s">
         <v>1</v>
       </c>
-      <c r="AM32">
-        <v>19</v>
+      <c r="AM32" t="s">
+        <v>1</v>
       </c>
       <c r="AN32" t="s">
         <v>30</v>
@@ -8598,8 +8538,8 @@
       <c r="AM33" t="s">
         <v>0</v>
       </c>
-      <c r="AN33">
-        <v>17</v>
+      <c r="AN33" t="s">
+        <v>1</v>
       </c>
       <c r="AO33" t="s">
         <v>0</v>
@@ -8807,8 +8747,8 @@
       <c r="AA34" t="s">
         <v>1</v>
       </c>
-      <c r="AB34">
-        <v>20</v>
+      <c r="AB34" t="s">
+        <v>1</v>
       </c>
       <c r="AC34" t="s">
         <v>1</v>
@@ -8843,8 +8783,8 @@
       <c r="AM34" t="s">
         <v>0</v>
       </c>
-      <c r="AN34">
-        <v>16</v>
+      <c r="AN34" t="s">
+        <v>1</v>
       </c>
       <c r="AO34" t="s">
         <v>0</v>
@@ -9052,8 +8992,8 @@
       <c r="AA35" t="s">
         <v>0</v>
       </c>
-      <c r="AB35">
-        <v>19</v>
+      <c r="AB35" t="s">
+        <v>1</v>
       </c>
       <c r="AC35" t="s">
         <v>0</v>
@@ -9088,8 +9028,8 @@
       <c r="AM35" t="s">
         <v>0</v>
       </c>
-      <c r="AN35">
-        <v>15</v>
+      <c r="AN35" t="s">
+        <v>1</v>
       </c>
       <c r="AO35" t="s">
         <v>0</v>
@@ -9297,8 +9237,8 @@
       <c r="AA36" t="s">
         <v>0</v>
       </c>
-      <c r="AB36">
-        <v>18</v>
+      <c r="AB36" t="s">
+        <v>1</v>
       </c>
       <c r="AC36" t="s">
         <v>0</v>
@@ -9333,8 +9273,8 @@
       <c r="AM36" t="s">
         <v>0</v>
       </c>
-      <c r="AN36">
-        <v>14</v>
+      <c r="AN36" t="s">
+        <v>1</v>
       </c>
       <c r="AO36" t="s">
         <v>0</v>
@@ -9542,8 +9482,8 @@
       <c r="AA37" t="s">
         <v>0</v>
       </c>
-      <c r="AB37">
-        <v>17</v>
+      <c r="AB37" t="s">
+        <v>1</v>
       </c>
       <c r="AC37" t="s">
         <v>0</v>
@@ -9578,8 +9518,8 @@
       <c r="AM37" t="s">
         <v>0</v>
       </c>
-      <c r="AN37">
-        <v>13</v>
+      <c r="AN37" t="s">
+        <v>1</v>
       </c>
       <c r="AO37" t="s">
         <v>0</v>
@@ -9787,20 +9727,20 @@
       <c r="AA38" t="s">
         <v>0</v>
       </c>
-      <c r="AB38">
-        <v>16</v>
-      </c>
-      <c r="AC38">
-        <v>15</v>
-      </c>
-      <c r="AD38">
-        <v>14</v>
-      </c>
-      <c r="AE38">
-        <v>13</v>
-      </c>
-      <c r="AF38">
-        <v>12</v>
+      <c r="AB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>1</v>
       </c>
       <c r="AG38" t="s">
         <v>0</v>
@@ -9811,20 +9751,20 @@
       <c r="AI38" t="s">
         <v>0</v>
       </c>
-      <c r="AJ38">
-        <v>8</v>
-      </c>
-      <c r="AK38">
-        <v>9</v>
-      </c>
-      <c r="AL38">
-        <v>10</v>
-      </c>
-      <c r="AM38">
-        <v>11</v>
-      </c>
-      <c r="AN38">
-        <v>12</v>
+      <c r="AJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>1</v>
       </c>
       <c r="AO38" t="s">
         <v>0</v>
@@ -10044,8 +9984,8 @@
       <c r="AE39" t="s">
         <v>0</v>
       </c>
-      <c r="AF39">
-        <v>11</v>
+      <c r="AF39" t="s">
+        <v>1</v>
       </c>
       <c r="AG39" t="s">
         <v>0</v>
@@ -10056,8 +9996,8 @@
       <c r="AI39" t="s">
         <v>0</v>
       </c>
-      <c r="AJ39">
-        <v>7</v>
+      <c r="AJ39" t="s">
+        <v>1</v>
       </c>
       <c r="AK39" t="s">
         <v>0</v>
@@ -10289,38 +10229,41 @@
       <c r="AE40" t="s">
         <v>0</v>
       </c>
-      <c r="AF40">
-        <v>10</v>
-      </c>
-      <c r="AG40">
-        <v>9</v>
-      </c>
-      <c r="AH40">
-        <v>8</v>
-      </c>
-      <c r="AI40">
-        <v>7</v>
-      </c>
-      <c r="AJ40">
-        <v>6</v>
-      </c>
-      <c r="AK40">
-        <v>5</v>
-      </c>
-      <c r="AL40">
-        <v>4</v>
-      </c>
-      <c r="AM40">
-        <v>3</v>
-      </c>
-      <c r="AN40">
-        <v>2</v>
-      </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
-        <v>2</v>
+      <c r="AF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>1</v>
       </c>
       <c r="AR40" t="s">
         <v>1</v>
@@ -10555,13 +10498,13 @@
       <c r="AM41" t="s">
         <v>0</v>
       </c>
-      <c r="AN41">
+      <c r="AN41" t="s">
         <v>1</v>
       </c>
       <c r="AO41" t="s">
         <v>33</v>
       </c>
-      <c r="AP41">
+      <c r="AP41" t="s">
         <v>1</v>
       </c>
       <c r="AQ41" t="s">
@@ -10782,32 +10725,35 @@
       <c r="AG42" t="s">
         <v>1</v>
       </c>
-      <c r="AH42">
-        <v>8</v>
-      </c>
-      <c r="AI42">
-        <v>7</v>
-      </c>
-      <c r="AJ42">
-        <v>6</v>
-      </c>
-      <c r="AK42">
-        <v>5</v>
-      </c>
-      <c r="AL42">
-        <v>4</v>
-      </c>
-      <c r="AM42">
-        <v>3</v>
-      </c>
-      <c r="AN42">
-        <v>2</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>2</v>
+      <c r="AH42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>1</v>
       </c>
       <c r="AR42" t="s">
         <v>1</v>
@@ -11024,8 +10970,8 @@
       <c r="AG43" t="s">
         <v>0</v>
       </c>
-      <c r="AH43">
-        <v>9</v>
+      <c r="AH43" t="s">
+        <v>1</v>
       </c>
       <c r="AI43" t="s">
         <v>0</v>
@@ -11269,20 +11215,20 @@
       <c r="AG44" t="s">
         <v>0</v>
       </c>
-      <c r="AH44">
-        <v>10</v>
-      </c>
-      <c r="AI44">
-        <v>11</v>
-      </c>
-      <c r="AJ44">
-        <v>12</v>
-      </c>
-      <c r="AK44">
-        <v>13</v>
-      </c>
-      <c r="AL44">
-        <v>14</v>
+      <c r="AH44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>1</v>
       </c>
       <c r="AM44" t="s">
         <v>0</v>
@@ -11526,8 +11472,8 @@
       <c r="AK45" t="s">
         <v>0</v>
       </c>
-      <c r="AL45">
-        <v>15</v>
+      <c r="AL45" t="s">
+        <v>1</v>
       </c>
       <c r="AM45" t="s">
         <v>0</v>
@@ -11765,14 +11711,14 @@
       <c r="AI46" t="s">
         <v>0</v>
       </c>
-      <c r="AJ46">
-        <v>18</v>
-      </c>
-      <c r="AK46">
-        <v>17</v>
-      </c>
-      <c r="AL46">
-        <v>16</v>
+      <c r="AJ46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>1</v>
       </c>
       <c r="AM46" t="s">
         <v>0</v>
@@ -12010,8 +11956,8 @@
       <c r="AI47" t="s">
         <v>0</v>
       </c>
-      <c r="AJ47">
-        <v>19</v>
+      <c r="AJ47" t="s">
+        <v>1</v>
       </c>
       <c r="AK47" t="s">
         <v>0</v>
@@ -12255,8 +12201,8 @@
       <c r="AI48" t="s">
         <v>0</v>
       </c>
-      <c r="AJ48">
-        <v>20</v>
+      <c r="AJ48" t="s">
+        <v>1</v>
       </c>
       <c r="AK48" t="s">
         <v>0</v>
@@ -12500,8 +12446,8 @@
       <c r="AI49" t="s">
         <v>0</v>
       </c>
-      <c r="AJ49">
-        <v>21</v>
+      <c r="AJ49" t="s">
+        <v>1</v>
       </c>
       <c r="AK49" t="s">
         <v>0</v>
@@ -12745,14 +12691,14 @@
       <c r="AI50" t="s">
         <v>0</v>
       </c>
-      <c r="AJ50">
-        <v>22</v>
-      </c>
-      <c r="AK50">
-        <v>23</v>
-      </c>
-      <c r="AL50">
-        <v>24</v>
+      <c r="AJ50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>1</v>
       </c>
       <c r="AM50" t="s">
         <v>0</v>
@@ -13241,8 +13187,8 @@
       <c r="AK52" t="s">
         <v>1</v>
       </c>
-      <c r="AL52">
-        <v>26</v>
+      <c r="AL52" t="s">
+        <v>1</v>
       </c>
       <c r="AM52" t="s">
         <v>0</v>
@@ -20480,12 +20426,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:CC81 CE5:CF5 CF6">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="A1:CC81">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"."</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"#"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20761,16 +20707,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57F7AC9E-10CD-4817-9CCF-1DE3C45DA410}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>